--- a/TPOAK/Test.xlsx
+++ b/TPOAK/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="175">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,22 +32,46 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>CAIU8689813</t>
-  </si>
-  <si>
-    <t>SAN DIEGO BRIDGE</t>
-  </si>
-  <si>
-    <t>0039</t>
-  </si>
-  <si>
-    <t>CHI1155152-CHI7835875</t>
-  </si>
-  <si>
-    <t>SGNV42990700</t>
-  </si>
-  <si>
-    <t>NYKU9891209</t>
+    <t>ONEU0296537</t>
+  </si>
+  <si>
+    <t>MOL PRESTIGE</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
+    <t>CHI1175848-CHI7980142</t>
+  </si>
+  <si>
+    <t>DELV12015400</t>
+  </si>
+  <si>
+    <t>TCKU2917258</t>
+  </si>
+  <si>
+    <t>HUMBER BRIDGE</t>
+  </si>
+  <si>
+    <t>0079</t>
+  </si>
+  <si>
+    <t>CHI1168997-CHI7918253</t>
+  </si>
+  <si>
+    <t>TY8NH9129700</t>
+  </si>
+  <si>
+    <t>TLLU6115528</t>
+  </si>
+  <si>
+    <t>CHI1168997-CHI7918255</t>
+  </si>
+  <si>
+    <t>TY8NC3541800</t>
+  </si>
+  <si>
+    <t>TCLU6638670</t>
   </si>
   <si>
     <t>NYK ATHENA</t>
@@ -56,13 +80,22 @@
     <t>0118</t>
   </si>
   <si>
-    <t>CHI1163350-CHI7880893</t>
-  </si>
-  <si>
-    <t>CMBV03339900</t>
-  </si>
-  <si>
-    <t>MOFU0634284</t>
+    <t>CHI1169031-CHI7919264</t>
+  </si>
+  <si>
+    <t>SGNV38100900</t>
+  </si>
+  <si>
+    <t>DRYU6052811</t>
+  </si>
+  <si>
+    <t>CHI1175848-CHI7980150</t>
+  </si>
+  <si>
+    <t>DELV10753400</t>
+  </si>
+  <si>
+    <t>TLLU4822809</t>
   </si>
   <si>
     <t>YM MOBILITY</t>
@@ -71,484 +104,439 @@
     <t>0040</t>
   </si>
   <si>
-    <t>CHI1163436-CHI7835864</t>
-  </si>
-  <si>
-    <t>SZPV32310900</t>
-  </si>
-  <si>
-    <t>TCLU2987102</t>
-  </si>
-  <si>
-    <t>CHI1163436-CHI7835866</t>
-  </si>
-  <si>
-    <t>SZPV32310904</t>
-  </si>
-  <si>
-    <t>KKFU8157015</t>
-  </si>
-  <si>
-    <t>HUMBER BRIDGE</t>
-  </si>
-  <si>
-    <t>0079</t>
-  </si>
-  <si>
-    <t>CHI1163080-CHI7879813</t>
-  </si>
-  <si>
-    <t>OS8NE4166400</t>
-  </si>
-  <si>
-    <t>TLLU6048590</t>
-  </si>
-  <si>
-    <t>CHI1163485-CHI7835865</t>
-  </si>
-  <si>
-    <t>SZPV32310902</t>
-  </si>
-  <si>
-    <t>FAMU5200241</t>
-  </si>
-  <si>
-    <t>MOL BELLWETHER</t>
-  </si>
-  <si>
-    <t>0020</t>
-  </si>
-  <si>
-    <t>CHI1166403-CHI7900847</t>
-  </si>
-  <si>
-    <t>XMNV17830500</t>
-  </si>
-  <si>
-    <t>FAMU5200473</t>
-  </si>
-  <si>
-    <t>CHI1166403-CHI7900846</t>
-  </si>
-  <si>
-    <t>XMNV17371500</t>
-  </si>
-  <si>
-    <t>FXLU8145218</t>
-  </si>
-  <si>
-    <t>CHI1166403-CHI7900852</t>
-  </si>
-  <si>
-    <t>HKGV48516700</t>
-  </si>
-  <si>
-    <t>NYKU4424515</t>
-  </si>
-  <si>
-    <t>CHI1155181-CHI7835884</t>
-  </si>
-  <si>
-    <t>SGNV37760600</t>
-  </si>
-  <si>
-    <t>MOTU0770114</t>
-  </si>
-  <si>
-    <t>CHI1155181-CHI7835885</t>
-  </si>
-  <si>
-    <t>NYKU5636632</t>
-  </si>
-  <si>
-    <t>CHI1155152-CHI7835876</t>
-  </si>
-  <si>
-    <t>CXDU1670815</t>
-  </si>
-  <si>
-    <t>CHI1155152-CHI7835877</t>
-  </si>
-  <si>
-    <t>TCNU2118852</t>
-  </si>
-  <si>
-    <t>CHI1155160-CHI7835870</t>
-  </si>
-  <si>
-    <t>MNLV08433600</t>
-  </si>
-  <si>
-    <t>TEMU2434341</t>
-  </si>
-  <si>
-    <t>CHI1163358-CHI7880898</t>
-  </si>
-  <si>
-    <t>HKGV48114800</t>
-  </si>
-  <si>
-    <t>GLDU5251268</t>
-  </si>
-  <si>
-    <t>CHI1163436-CHI7835871</t>
-  </si>
-  <si>
-    <t>MNLV08793800</t>
-  </si>
-  <si>
-    <t>CAIU8985395</t>
-  </si>
-  <si>
-    <t>CHI1155160-CHI7835862</t>
-  </si>
-  <si>
-    <t>KKFU7660684</t>
-  </si>
-  <si>
-    <t>CHI1163439-CHI7835878</t>
-  </si>
-  <si>
-    <t>CMBV03997500</t>
-  </si>
-  <si>
-    <t>TCKU2896453</t>
-  </si>
-  <si>
-    <t>CHI1163445-CHI7835879</t>
-  </si>
-  <si>
-    <t>DELV07218600</t>
-  </si>
-  <si>
-    <t>KKFU7131361</t>
-  </si>
-  <si>
-    <t>CHI1159637-CHI7861563</t>
-  </si>
-  <si>
-    <t>HKGV47420700</t>
-  </si>
-  <si>
-    <t>NYKU4631657</t>
-  </si>
-  <si>
-    <t>CHI1159637-CHI7861559</t>
-  </si>
-  <si>
-    <t>HKGV47968300</t>
-  </si>
-  <si>
-    <t>TGHU9243586</t>
-  </si>
-  <si>
-    <t>CHI1163080-CHI7879808</t>
-  </si>
-  <si>
-    <t>OS8NF2121800</t>
-  </si>
-  <si>
-    <t>TCLU7974406</t>
-  </si>
-  <si>
-    <t>CHI1163080-CHI7879807</t>
-  </si>
-  <si>
-    <t>DRYU6050336</t>
-  </si>
-  <si>
-    <t>CHI1163080-CHI7879811</t>
-  </si>
-  <si>
-    <t>TCLU8848470</t>
-  </si>
-  <si>
-    <t>CHI1166403-CHI7900853</t>
-  </si>
-  <si>
-    <t>TPEV19188800</t>
-  </si>
-  <si>
-    <t>DRYU4016688</t>
-  </si>
-  <si>
-    <t>CHI1166403-CHI7900851</t>
-  </si>
-  <si>
-    <t>SZPV37552800</t>
-  </si>
-  <si>
-    <t>FXLU8145394</t>
-  </si>
-  <si>
-    <t>CHI1166403-CHI7900859</t>
-  </si>
-  <si>
-    <t>HKGV48511900</t>
-  </si>
-  <si>
-    <t>TCNU6711233</t>
-  </si>
-  <si>
-    <t>CHI1159637-CHI7861562</t>
-  </si>
-  <si>
-    <t>MOTU0720068</t>
-  </si>
-  <si>
-    <t>CHI1163209-CHI7880335</t>
-  </si>
-  <si>
-    <t>MNLV08019600</t>
-  </si>
-  <si>
-    <t>NYKU4210956</t>
-  </si>
-  <si>
-    <t>CHI1163080-CHI7879810</t>
-  </si>
-  <si>
-    <t>ONEU7028074</t>
-  </si>
-  <si>
-    <t>EXPRESS ROME</t>
-  </si>
-  <si>
-    <t>0012</t>
-  </si>
-  <si>
-    <t>CHI1163011-CHI7879433</t>
-  </si>
-  <si>
-    <t>HKGV54092300</t>
-  </si>
-  <si>
-    <t>TCLU8429854</t>
-  </si>
-  <si>
-    <t>CHI1163485-CHI7835863</t>
-  </si>
-  <si>
-    <t>NYKU3339738</t>
-  </si>
-  <si>
-    <t>CHI1163442-CHI7881295</t>
-  </si>
-  <si>
-    <t>HKGV48694700</t>
-  </si>
-  <si>
-    <t>CAIU9164603</t>
-  </si>
-  <si>
-    <t>CHI1163445-CHI7835881</t>
-  </si>
-  <si>
-    <t>DELV09878600</t>
-  </si>
-  <si>
-    <t>TLLU4018663</t>
-  </si>
-  <si>
-    <t>CHI1163445-CHI7835874</t>
-  </si>
-  <si>
-    <t>SGNV39901500</t>
-  </si>
-  <si>
-    <t>TEMU8718788</t>
-  </si>
-  <si>
-    <t>CHI1163080-CHI7879805</t>
-  </si>
-  <si>
-    <t>OS8NF5289500</t>
-  </si>
-  <si>
-    <t>TGBU5180240</t>
-  </si>
-  <si>
-    <t>CHI1163080-CHI7879803</t>
-  </si>
-  <si>
-    <t>OS8NF3183300</t>
-  </si>
-  <si>
-    <t>TCLU9541961</t>
-  </si>
-  <si>
-    <t>CHI1163080-CHI7879809</t>
-  </si>
-  <si>
-    <t>OS8NF0085800</t>
-  </si>
-  <si>
-    <t>TCNU6072045</t>
-  </si>
-  <si>
-    <t>CHI1163080-CHI7879804</t>
-  </si>
-  <si>
-    <t>DRYU9964588</t>
-  </si>
-  <si>
-    <t>CHI1163080-CHI7879815</t>
-  </si>
-  <si>
-    <t>TCNU6853330</t>
-  </si>
-  <si>
-    <t>CHI1163445-CHI7835882</t>
-  </si>
-  <si>
-    <t>DELV09879700</t>
-  </si>
-  <si>
-    <t>KKFU7895230</t>
-  </si>
-  <si>
-    <t>CHI1163445-CHI7835886</t>
-  </si>
-  <si>
-    <t>DRYU4572368</t>
-  </si>
-  <si>
-    <t>CHI1163011-CHI7879432</t>
-  </si>
-  <si>
-    <t>ONEU0098995</t>
-  </si>
-  <si>
-    <t>CHI1163080-CHI7879814</t>
-  </si>
-  <si>
-    <t>OS8NF2153600</t>
+    <t>CHI1175892-CHI7979258</t>
+  </si>
+  <si>
+    <t>TPEV19503600</t>
+  </si>
+  <si>
+    <t>TCLU8904825</t>
+  </si>
+  <si>
+    <t>HENRY HUDSON BRIDGE</t>
+  </si>
+  <si>
+    <t>0067</t>
+  </si>
+  <si>
+    <t>CHI1171721-CHI7948121</t>
+  </si>
+  <si>
+    <t>OS8NF3223500</t>
+  </si>
+  <si>
+    <t>KKTU7816318</t>
+  </si>
+  <si>
+    <t>CHI1171713-CHI7948122</t>
+  </si>
+  <si>
+    <t>TY8NH1859900</t>
+  </si>
+  <si>
+    <t>TCNU2077521</t>
+  </si>
+  <si>
+    <t>CHI1171721-CHI7948118</t>
+  </si>
+  <si>
+    <t>OS8NF3204400</t>
+  </si>
+  <si>
+    <t>CAIU8921826</t>
+  </si>
+  <si>
+    <t>CHI1171721-CHI7948117</t>
+  </si>
+  <si>
+    <t>CAIU3195016</t>
+  </si>
+  <si>
+    <t>CHI1171713-CHI7948127</t>
+  </si>
+  <si>
+    <t>TY8NC9738800</t>
+  </si>
+  <si>
+    <t>NYKU3900140</t>
+  </si>
+  <si>
+    <t>CHI1171693-CHI7948120</t>
+  </si>
+  <si>
+    <t>OS8NB1011800</t>
+  </si>
+  <si>
+    <t>BEAU2755678</t>
+  </si>
+  <si>
+    <t>CHI1171713-CHI7948104</t>
+  </si>
+  <si>
+    <t>FDCU0358294</t>
+  </si>
+  <si>
+    <t>CHI1171721-CHI7948112</t>
+  </si>
+  <si>
+    <t>OS8NF3203300</t>
+  </si>
+  <si>
+    <t>NYKU4113555</t>
+  </si>
+  <si>
+    <t>CHI1175792-CHI7979853</t>
+  </si>
+  <si>
+    <t>CMBV04047600</t>
+  </si>
+  <si>
+    <t>NYKU9734642</t>
+  </si>
+  <si>
+    <t>CHI1175848-CHI7980143</t>
+  </si>
+  <si>
+    <t>DELV10798600</t>
+  </si>
+  <si>
+    <t>TCNU3055640</t>
+  </si>
+  <si>
+    <t>CHI1175848-CHI7980145</t>
+  </si>
+  <si>
+    <t>DELV10456400</t>
+  </si>
+  <si>
+    <t>TCNU6826802</t>
+  </si>
+  <si>
+    <t>CHI1171721-CHI7948114</t>
+  </si>
+  <si>
+    <t>TRHU1423114</t>
+  </si>
+  <si>
+    <t>CHI1175848-CHI7980144</t>
+  </si>
+  <si>
+    <t>DELV10420900</t>
+  </si>
+  <si>
+    <t>NYKU9728212</t>
+  </si>
+  <si>
+    <t>CHI1171704-CHI7948125</t>
+  </si>
+  <si>
+    <t>TY8NE1850400</t>
+  </si>
+  <si>
+    <t>TLLU5667991</t>
+  </si>
+  <si>
+    <t>CHI1171704-CHI7948103</t>
+  </si>
+  <si>
+    <t>TGHU6227220</t>
+  </si>
+  <si>
+    <t>CHI1171721-CHI7948109</t>
+  </si>
+  <si>
+    <t>OS8NF2162600</t>
+  </si>
+  <si>
+    <t>TCNU4037467</t>
+  </si>
+  <si>
+    <t>CHI1171721-CHI7948113</t>
+  </si>
+  <si>
+    <t>TLLU5493816</t>
+  </si>
+  <si>
+    <t>CHI1171721-CHI7948115</t>
+  </si>
+  <si>
+    <t>MOTU0641858</t>
+  </si>
+  <si>
+    <t>CHI1171721-CHI7948119</t>
+  </si>
+  <si>
+    <t>GLDU9995720</t>
+  </si>
+  <si>
+    <t>CHI1168997-CHI7918251</t>
+  </si>
+  <si>
+    <t>TY8NL5122500</t>
+  </si>
+  <si>
+    <t>TCKU3582251</t>
+  </si>
+  <si>
+    <t>CHI1169031-CHI7919266</t>
+  </si>
+  <si>
+    <t>SINV19542600</t>
+  </si>
+  <si>
+    <t>MOAU0669036</t>
+  </si>
+  <si>
+    <t>CHI1175892-CHI7979260</t>
+  </si>
+  <si>
+    <t>HKGV42598400</t>
+  </si>
+  <si>
+    <t>KKTU7721763</t>
+  </si>
+  <si>
+    <t>CHI1175892-CHI7979256</t>
+  </si>
+  <si>
+    <t>TCLU4524302</t>
+  </si>
+  <si>
+    <t>CHI1171696-CHI7948128</t>
+  </si>
+  <si>
+    <t>NG8CP2002700</t>
+  </si>
+  <si>
+    <t>TCNU6426299</t>
+  </si>
+  <si>
+    <t>CHI1171721-CHI7948105</t>
+  </si>
+  <si>
+    <t>OS8NF2161500</t>
+  </si>
+  <si>
+    <t>DFSU7395375</t>
+  </si>
+  <si>
+    <t>CHI1171721-CHI7948107</t>
+  </si>
+  <si>
+    <t>TCKU3612736</t>
+  </si>
+  <si>
+    <t>CHI1175892-CHI7979254</t>
+  </si>
+  <si>
+    <t>SZPV40800500</t>
+  </si>
+  <si>
+    <t>MOAU6715859</t>
+  </si>
+  <si>
+    <t>CHI1175892-CHI7979255</t>
+  </si>
+  <si>
+    <t>SZPV40664607</t>
+  </si>
+  <si>
+    <t>TLLU4679128</t>
+  </si>
+  <si>
+    <t>CHI1175892-CHI7979257</t>
+  </si>
+  <si>
+    <t>TPEV13988300</t>
+  </si>
+  <si>
+    <t>NYKU9778620</t>
+  </si>
+  <si>
+    <t>CHI1168997-CHI7918250</t>
+  </si>
+  <si>
+    <t>NG8CP4157600</t>
+  </si>
+  <si>
+    <t>KKFU7547430</t>
+  </si>
+  <si>
+    <t>CHI1175848-CHI7980140</t>
+  </si>
+  <si>
+    <t>DELV10787400</t>
+  </si>
+  <si>
+    <t>TCNU4831630</t>
+  </si>
+  <si>
+    <t>CHI1175848-CHI7980138</t>
+  </si>
+  <si>
+    <t>SGNV37832600</t>
+  </si>
+  <si>
+    <t>TLLU5540420</t>
+  </si>
+  <si>
+    <t>CHI1169031-CHI7919265</t>
+  </si>
+  <si>
+    <t>SGNV35750300</t>
+  </si>
+  <si>
+    <t>MOAU0670762</t>
+  </si>
+  <si>
+    <t>CHI1171713-CHI7948123</t>
+  </si>
+  <si>
+    <t>TCLU4745793</t>
+  </si>
+  <si>
+    <t>CHI1169031-CHI7919263</t>
+  </si>
+  <si>
+    <t>PKGV11324600</t>
+  </si>
+  <si>
+    <t>TLLU5509300</t>
+  </si>
+  <si>
+    <t>CHI1169031-CHI7919262</t>
+  </si>
+  <si>
+    <t>PKGV10424600</t>
+  </si>
+  <si>
+    <t>TRHU3092416</t>
+  </si>
+  <si>
+    <t>CHI1168997-CHI7918252</t>
+  </si>
+  <si>
+    <t>TY8NJ7350800</t>
+  </si>
+  <si>
+    <t>SEGU5981644</t>
+  </si>
+  <si>
+    <t>CHI1168997-CHI7918254</t>
   </si>
   <si>
     <t>TCKU4394916</t>
   </si>
   <si>
-    <t>CHI1163342-CHI7880892</t>
+    <t>CHI1171689-CHI7880892</t>
   </si>
   <si>
     <t>TY8NF4949300</t>
   </si>
   <si>
-    <t>KKTU7520687</t>
-  </si>
-  <si>
-    <t>CHI1163347-CHI7880894</t>
-  </si>
-  <si>
-    <t>OS8NB0995700</t>
-  </si>
-  <si>
-    <t>TCNU5924933</t>
-  </si>
-  <si>
-    <t>CHI1163445-CHI7835880</t>
-  </si>
-  <si>
-    <t>DELV07671900</t>
-  </si>
-  <si>
-    <t>TEMU8839732</t>
-  </si>
-  <si>
-    <t>CHI1163445-CHI7835883</t>
-  </si>
-  <si>
-    <t>DELV10033900</t>
-  </si>
-  <si>
-    <t>TCKU4775091</t>
-  </si>
-  <si>
-    <t>CHI1166403-CHI7900857</t>
-  </si>
-  <si>
-    <t>TPEV18555500</t>
-  </si>
-  <si>
-    <t>TDRU8412602</t>
-  </si>
-  <si>
-    <t>CHI1166403-CHI7900849</t>
-  </si>
-  <si>
-    <t>SZPV37174800</t>
-  </si>
-  <si>
-    <t>TCLU7906931</t>
-  </si>
-  <si>
-    <t>CHI1166403-CHI7900858</t>
-  </si>
-  <si>
-    <t>ONEU7048949</t>
-  </si>
-  <si>
-    <t>CHI1159637-CHI7861561</t>
-  </si>
-  <si>
-    <t>DFSU7804494</t>
-  </si>
-  <si>
-    <t>CHI1159637-CHI7861560</t>
-  </si>
-  <si>
-    <t>MOFU6767659</t>
-  </si>
-  <si>
-    <t>CHI1166403-CHI7900848</t>
-  </si>
-  <si>
-    <t>SZPV33611700</t>
-  </si>
-  <si>
-    <t>NYKU5276860</t>
-  </si>
-  <si>
-    <t>CHI1166403-CHI7900856</t>
-  </si>
-  <si>
-    <t>TPEV16214900</t>
-  </si>
-  <si>
-    <t>FXLU8137779</t>
-  </si>
-  <si>
-    <t>CHI1166403-CHI7900855</t>
-  </si>
-  <si>
-    <t>SZPV39704902</t>
-  </si>
-  <si>
-    <t>FXLU8137716</t>
-  </si>
-  <si>
-    <t>CHI1166403-CHI7900854</t>
-  </si>
-  <si>
-    <t>SZPV39673700</t>
-  </si>
-  <si>
-    <t>KKFU8092700</t>
-  </si>
-  <si>
-    <t>CHI1163080-CHI7879812</t>
-  </si>
-  <si>
-    <t>FDCU0397475</t>
-  </si>
-  <si>
-    <t>CHI1163080-CHI7879806</t>
-  </si>
-  <si>
-    <t>KKFU7736687</t>
-  </si>
-  <si>
-    <t>CHI1163080-CHI7879816</t>
+    <t>KKTU8105865</t>
+  </si>
+  <si>
+    <t>CHI1171713-CHI7948126</t>
+  </si>
+  <si>
+    <t>MOFU0731160</t>
+  </si>
+  <si>
+    <t>CHI1168997-CHI7918256</t>
+  </si>
+  <si>
+    <t>TCKU4635145</t>
+  </si>
+  <si>
+    <t>CHI1175848-CHI7980141</t>
+  </si>
+  <si>
+    <t>DELV10458600</t>
+  </si>
+  <si>
+    <t>TGHU5278619</t>
+  </si>
+  <si>
+    <t>CHI1175892-CHI7979259</t>
+  </si>
+  <si>
+    <t>TPEV21561300</t>
+  </si>
+  <si>
+    <t>MOTU6700243</t>
+  </si>
+  <si>
+    <t>CHI1171721-CHI7948111</t>
+  </si>
+  <si>
+    <t>OS8NF3180700</t>
+  </si>
+  <si>
+    <t>TCNU2790830</t>
+  </si>
+  <si>
+    <t>CHI1171721-CHI7948108</t>
+  </si>
+  <si>
+    <t>MOFU5810107</t>
+  </si>
+  <si>
+    <t>CHI1175848-CHI7980147</t>
+  </si>
+  <si>
+    <t>DELV12018700</t>
+  </si>
+  <si>
+    <t>AKLU6503222</t>
+  </si>
+  <si>
+    <t>CHI1175848-CHI7980151</t>
+  </si>
+  <si>
+    <t>DELV10783700</t>
+  </si>
+  <si>
+    <t>TRHU3722460</t>
+  </si>
+  <si>
+    <t>CHI1171713-CHI7948124</t>
+  </si>
+  <si>
+    <t>NYKU4173240</t>
+  </si>
+  <si>
+    <t>CHI1171721-CHI7948116</t>
+  </si>
+  <si>
+    <t>DRYU9226265</t>
+  </si>
+  <si>
+    <t>CHI1171721-CHI7948110</t>
+  </si>
+  <si>
+    <t>MOAU1412783</t>
+  </si>
+  <si>
+    <t>CHI1175848-CHI7980149</t>
+  </si>
+  <si>
+    <t>DELV12019800</t>
+  </si>
+  <si>
+    <t>KKTU7929382</t>
+  </si>
+  <si>
+    <t>CHI1175848-CHI7980148</t>
+  </si>
+  <si>
+    <t>DELV10421300</t>
+  </si>
+  <si>
+    <t>GESU6215016</t>
+  </si>
+  <si>
+    <t>CHI1175848-CHI7980139</t>
   </si>
 </sst>
 </file>
@@ -593,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -660,28 +648,28 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -696,28 +684,28 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -786,35 +774,35 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
         <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -822,130 +810,130 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -954,16 +942,16 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -972,16 +960,16 @@
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
@@ -990,11 +978,11 @@
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23">
@@ -1002,10 +990,10 @@
         <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
         <v>76</v>
@@ -1020,17 +1008,17 @@
         <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>79</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -1038,17 +1026,17 @@
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
         <v>81</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -1066,61 +1054,61 @@
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
         <v>85</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="s">
-        <v>86</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
         <v>88</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" t="s">
-        <v>89</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
         <v>91</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" t="s">
-        <v>92</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
@@ -1128,35 +1116,35 @@
         <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
         <v>94</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
         <v>96</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>97</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
@@ -1164,215 +1152,215 @@
         <v>98</v>
       </c>
       <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
         <v>99</v>
-      </c>
-      <c r="C32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" t="s">
-        <v>101</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
         <v>125</v>
-      </c>
-      <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" t="s">
-        <v>126</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
         <v>127</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>128</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
         <v>130</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
-        <v>131</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44">
@@ -1380,35 +1368,35 @@
         <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
         <v>133</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -1416,10 +1404,10 @@
         <v>137</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
         <v>138</v>
@@ -1434,40 +1422,40 @@
         <v>140</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
         <v>141</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
         <v>143</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" t="s">
-        <v>144</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1476,34 +1464,34 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B51" t="s">
         <v>33</v>
@@ -1512,16 +1500,16 @@
         <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
         <v>33</v>
@@ -1530,47 +1518,47 @@
         <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
         <v>159</v>
-      </c>
-      <c r="B54" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" t="s">
-        <v>160</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55">
@@ -1588,30 +1576,30 @@
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
         <v>164</v>
-      </c>
-      <c r="B56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56" t="s">
-        <v>165</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B57" t="s">
         <v>33</v>
@@ -1620,83 +1608,65 @@
         <v>34</v>
       </c>
       <c r="D57" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>177</v>
-      </c>
-      <c r="B61" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" t="s">
-        <v>178</v>
-      </c>
-      <c r="E61"/>
-      <c r="F61" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/TPOAK/Test.xlsx
+++ b/TPOAK/Test.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\PortTerminalScraping\TPOAK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -179,362 +186,361 @@
     <t>CHI1231927-CHI8400571</t>
   </si>
   <si>
+    <t>HKGV49922900</t>
+  </si>
+  <si>
+    <t>CHI1236565-CHI8400564</t>
+  </si>
+  <si>
+    <t>KKFU6742936</t>
+  </si>
+  <si>
+    <t>COKV02476500</t>
+  </si>
+  <si>
+    <t>CHI1236514-CHI8432190</t>
+  </si>
+  <si>
+    <t>TCLU8299262</t>
+  </si>
+  <si>
+    <t>SZPV56450602</t>
+  </si>
+  <si>
+    <t>CHI1236590-CHI8434731</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
+    <t>MOL BENEFACTOR</t>
+  </si>
+  <si>
+    <t>KKTU7926193</t>
+  </si>
+  <si>
+    <t>SZPV56450603</t>
+  </si>
+  <si>
+    <t>CHI1236587-CHI8434728</t>
+  </si>
+  <si>
+    <t>FDCU0446219</t>
+  </si>
+  <si>
+    <t>CHI1236587-CHI8434729</t>
+  </si>
+  <si>
+    <t>TCNU4806670</t>
+  </si>
+  <si>
+    <t>SZPV56450601</t>
+  </si>
+  <si>
+    <t>CHI1236589-CHI8434732</t>
+  </si>
+  <si>
+    <t>TCNU2252521</t>
+  </si>
+  <si>
+    <t>CHI1236589-CHI8434733</t>
+  </si>
+  <si>
+    <t>TCLU9665556</t>
+  </si>
+  <si>
+    <t>CHI1232840-CHI8406828</t>
+  </si>
+  <si>
+    <t>BMOU3143732</t>
+  </si>
+  <si>
+    <t>TY8NJ7353400</t>
+  </si>
+  <si>
+    <t>CHI1232840-CHI8406826</t>
+  </si>
+  <si>
+    <t>NYKU8477051</t>
+  </si>
+  <si>
+    <t>HKGV69813300</t>
+  </si>
+  <si>
+    <t>CHI1232716-CHI8406306</t>
+  </si>
+  <si>
+    <t>TCLU2227476</t>
+  </si>
+  <si>
+    <t>HKGV62917800</t>
+  </si>
+  <si>
+    <t>CHI1232716-CHI8406302</t>
+  </si>
+  <si>
+    <t>FXLU9074931</t>
+  </si>
+  <si>
+    <t>SZPV50726600</t>
+  </si>
+  <si>
+    <t>CHI1232716-CHI8406307</t>
+  </si>
+  <si>
+    <t>TCLU1641049</t>
+  </si>
+  <si>
+    <t>CHI1232716-CHI8406303</t>
+  </si>
+  <si>
+    <t>FXLU1746979</t>
+  </si>
+  <si>
+    <t>SGNV47310500</t>
+  </si>
+  <si>
+    <t>CHI1223600-CHI8344621</t>
+  </si>
+  <si>
+    <t>KKFU8102537</t>
+  </si>
+  <si>
+    <t>SZPV52710800</t>
+  </si>
+  <si>
+    <t>CHI1232716-CHI8406309</t>
+  </si>
+  <si>
+    <t>TDRU5116762</t>
+  </si>
+  <si>
+    <t>DELV14228500</t>
+  </si>
+  <si>
+    <t>CHI1231948-CHI8400582</t>
+  </si>
+  <si>
+    <t>NYKU4175032</t>
+  </si>
+  <si>
+    <t>SGNV49656600</t>
+  </si>
+  <si>
+    <t>CHI1231936-CHI8400588</t>
+  </si>
+  <si>
+    <t>KKFU7765181</t>
+  </si>
+  <si>
+    <t>CHI1231936-CHI8400586</t>
+  </si>
+  <si>
+    <t>TCNU5968398</t>
+  </si>
+  <si>
+    <t>CHI1231936-CHI8400587</t>
+  </si>
+  <si>
+    <t>DRYU9431465</t>
+  </si>
+  <si>
+    <t>CHI1231927-CHI8400572</t>
+  </si>
+  <si>
+    <t>TEMU7207335</t>
+  </si>
+  <si>
+    <t>OS8NA2404700</t>
+  </si>
+  <si>
+    <t>CHI1232013-CHI8400569</t>
+  </si>
+  <si>
+    <t>TCNU3593230</t>
+  </si>
+  <si>
+    <t>CHI1232005-CHI8400565</t>
+  </si>
+  <si>
+    <t>TEMU8717082</t>
+  </si>
+  <si>
+    <t>CHI1232013-CHI8400570</t>
+  </si>
+  <si>
+    <t>TEMU8567568</t>
+  </si>
+  <si>
+    <t>CHI1232005-CHI8400566</t>
+  </si>
+  <si>
+    <t>TLLU5443585</t>
+  </si>
+  <si>
+    <t>CHI1223600-CHI8344624</t>
+  </si>
+  <si>
+    <t>NYKU4390061</t>
+  </si>
+  <si>
+    <t>SGNV47265700</t>
+  </si>
+  <si>
+    <t>CHI1223600-CHI8344622</t>
+  </si>
+  <si>
+    <t>NYKU4637871</t>
+  </si>
+  <si>
+    <t>CHI1223600-CHI8344623</t>
+  </si>
+  <si>
+    <t>TCLU5769531</t>
+  </si>
+  <si>
+    <t>DELV13698800</t>
+  </si>
+  <si>
+    <t>CHI1231981-CHI8400580</t>
+  </si>
+  <si>
+    <t>MOTU6709472</t>
+  </si>
+  <si>
+    <t>HKGV62919300</t>
+  </si>
+  <si>
+    <t>CHI1232716-CHI8406304</t>
+  </si>
+  <si>
+    <t>FXLU8145239</t>
+  </si>
+  <si>
+    <t>CHI1232716-CHI8406310</t>
+  </si>
+  <si>
+    <t>TDRU5110091</t>
+  </si>
+  <si>
+    <t>SZPV49270805</t>
+  </si>
+  <si>
+    <t>CHI1232716-CHI8406305</t>
+  </si>
+  <si>
+    <t>KKTU7859027</t>
+  </si>
+  <si>
+    <t>SGNV52216600</t>
+  </si>
+  <si>
+    <t>CHI1231942-CHI8400577</t>
+  </si>
+  <si>
+    <t>TCLU4416463</t>
+  </si>
+  <si>
+    <t>CHI1231936-CHI8400590</t>
+  </si>
+  <si>
+    <t>TCNU3899512</t>
+  </si>
+  <si>
+    <t>CHI1231927-CHI8400574</t>
+  </si>
+  <si>
+    <t>NYKU5974542</t>
+  </si>
+  <si>
+    <t>CHI1231927-CHI8400575</t>
+  </si>
+  <si>
+    <t>AXIU1615710</t>
+  </si>
+  <si>
+    <t>CHI1231927-CHI8400576</t>
+  </si>
+  <si>
+    <t>DFSU7395056</t>
+  </si>
+  <si>
+    <t>TY8NC9739900</t>
+  </si>
+  <si>
+    <t>CHI1232484-CHI8404673</t>
+  </si>
+  <si>
+    <t>NYKU3554601</t>
+  </si>
+  <si>
+    <t>CHI1232484-CHI8404671</t>
+  </si>
+  <si>
+    <t>NYKU3420285</t>
+  </si>
+  <si>
+    <t>CHI1232005-CHI8400567</t>
+  </si>
+  <si>
+    <t>FDCU0410920</t>
+  </si>
+  <si>
+    <t>CHI1232484-CHI8404672</t>
+  </si>
+  <si>
+    <t>CXDU1801480</t>
+  </si>
+  <si>
+    <t>SGNV51353700</t>
+  </si>
+  <si>
+    <t>CHI1231985-CHI8400578</t>
+  </si>
+  <si>
+    <t>TCNU4416455</t>
+  </si>
+  <si>
+    <t>DELV14229600</t>
+  </si>
+  <si>
+    <t>CHI1231961-CHI8400583</t>
+  </si>
+  <si>
+    <t>BEAU4432205</t>
+  </si>
+  <si>
+    <t>CHI1231936-CHI8400584</t>
+  </si>
+  <si>
+    <t>NYKU4332580</t>
+  </si>
+  <si>
+    <t>CHI1231936-CHI8400585</t>
+  </si>
+  <si>
+    <t>NYKU4422364</t>
+  </si>
+  <si>
+    <t>CHI1231936-CHI8400589</t>
+  </si>
+  <si>
+    <t>TCNU5688376</t>
+  </si>
+  <si>
+    <t>CHI1231927-CHI8400591</t>
+  </si>
+  <si>
     <t>NYKU4228805</t>
-  </si>
-  <si>
-    <t>CHI1231927-CHI8400591</t>
-  </si>
-  <si>
-    <t>TCNU5688376</t>
-  </si>
-  <si>
-    <t>CHI1231936-CHI8400589</t>
-  </si>
-  <si>
-    <t>SGNV49656600</t>
-  </si>
-  <si>
-    <t>NYKU4422364</t>
-  </si>
-  <si>
-    <t>CHI1231936-CHI8400585</t>
-  </si>
-  <si>
-    <t>NYKU4332580</t>
-  </si>
-  <si>
-    <t>CHI1231936-CHI8400584</t>
-  </si>
-  <si>
-    <t>BEAU4432205</t>
-  </si>
-  <si>
-    <t>CHI1231961-CHI8400583</t>
-  </si>
-  <si>
-    <t>DELV14229600</t>
-  </si>
-  <si>
-    <t>TCNU4416455</t>
-  </si>
-  <si>
-    <t>CHI1231985-CHI8400578</t>
-  </si>
-  <si>
-    <t>SGNV51353700</t>
-  </si>
-  <si>
-    <t>CXDU1801480</t>
-  </si>
-  <si>
-    <t>CHI1232484-CHI8404672</t>
-  </si>
-  <si>
-    <t>TY8NC9739900</t>
-  </si>
-  <si>
-    <t>FDCU0410920</t>
-  </si>
-  <si>
-    <t>CHI1232005-CHI8400567</t>
-  </si>
-  <si>
-    <t>NYKU3420285</t>
-  </si>
-  <si>
-    <t>CHI1232484-CHI8404671</t>
-  </si>
-  <si>
-    <t>NYKU3554601</t>
-  </si>
-  <si>
-    <t>CHI1232484-CHI8404673</t>
-  </si>
-  <si>
-    <t>DFSU7395056</t>
-  </si>
-  <si>
-    <t>CHI1231927-CHI8400576</t>
-  </si>
-  <si>
-    <t>AXIU1615710</t>
-  </si>
-  <si>
-    <t>CHI1231927-CHI8400575</t>
-  </si>
-  <si>
-    <t>NYKU5974542</t>
-  </si>
-  <si>
-    <t>CHI1231927-CHI8400574</t>
-  </si>
-  <si>
-    <t>TCNU3899512</t>
-  </si>
-  <si>
-    <t>CHI1231936-CHI8400590</t>
-  </si>
-  <si>
-    <t>TCLU4416463</t>
-  </si>
-  <si>
-    <t>CHI1231942-CHI8400577</t>
-  </si>
-  <si>
-    <t>SGNV52216600</t>
-  </si>
-  <si>
-    <t>KKTU7859027</t>
-  </si>
-  <si>
-    <t>CHI1232716-CHI8406305</t>
-  </si>
-  <si>
-    <t>SZPV49270805</t>
-  </si>
-  <si>
-    <t>TDRU5110091</t>
-  </si>
-  <si>
-    <t>CHI1232716-CHI8406310</t>
-  </si>
-  <si>
-    <t>SZPV52710800</t>
-  </si>
-  <si>
-    <t>FXLU8145239</t>
-  </si>
-  <si>
-    <t>CHI1232716-CHI8406304</t>
-  </si>
-  <si>
-    <t>HKGV62919300</t>
-  </si>
-  <si>
-    <t>MOTU6709472</t>
-  </si>
-  <si>
-    <t>CHI1231981-CHI8400580</t>
-  </si>
-  <si>
-    <t>DELV13698800</t>
-  </si>
-  <si>
-    <t>TCLU5769531</t>
-  </si>
-  <si>
-    <t>CHI1223600-CHI8344623</t>
-  </si>
-  <si>
-    <t>SGNV47310500</t>
-  </si>
-  <si>
-    <t>NYKU4637871</t>
-  </si>
-  <si>
-    <t>CHI1223600-CHI8344622</t>
-  </si>
-  <si>
-    <t>SGNV47265700</t>
-  </si>
-  <si>
-    <t>NYKU4390061</t>
-  </si>
-  <si>
-    <t>CHI1223600-CHI8344624</t>
-  </si>
-  <si>
-    <t>TLLU5443585</t>
-  </si>
-  <si>
-    <t>CHI1232005-CHI8400566</t>
-  </si>
-  <si>
-    <t>TEMU8567568</t>
-  </si>
-  <si>
-    <t>CHI1232013-CHI8400570</t>
-  </si>
-  <si>
-    <t>OS8NA2404700</t>
-  </si>
-  <si>
-    <t>TEMU8717082</t>
-  </si>
-  <si>
-    <t>CHI1232005-CHI8400565</t>
-  </si>
-  <si>
-    <t>TCNU3593230</t>
-  </si>
-  <si>
-    <t>CHI1232013-CHI8400569</t>
-  </si>
-  <si>
-    <t>TEMU7207335</t>
-  </si>
-  <si>
-    <t>CHI1231927-CHI8400572</t>
-  </si>
-  <si>
-    <t>DRYU9431465</t>
-  </si>
-  <si>
-    <t>CHI1231936-CHI8400587</t>
-  </si>
-  <si>
-    <t>TCNU5968398</t>
-  </si>
-  <si>
-    <t>CHI1231936-CHI8400586</t>
-  </si>
-  <si>
-    <t>KKFU7765181</t>
-  </si>
-  <si>
-    <t>CHI1231936-CHI8400588</t>
-  </si>
-  <si>
-    <t>NYKU4175032</t>
-  </si>
-  <si>
-    <t>CHI1231948-CHI8400582</t>
-  </si>
-  <si>
-    <t>DELV14228500</t>
-  </si>
-  <si>
-    <t>TDRU5116762</t>
-  </si>
-  <si>
-    <t>CHI1232716-CHI8406309</t>
-  </si>
-  <si>
-    <t>KKFU8102537</t>
-  </si>
-  <si>
-    <t>CHI1223600-CHI8344621</t>
-  </si>
-  <si>
-    <t>FXLU1746979</t>
-  </si>
-  <si>
-    <t>CHI1232716-CHI8406303</t>
-  </si>
-  <si>
-    <t>HKGV62917800</t>
-  </si>
-  <si>
-    <t>TCLU1641049</t>
-  </si>
-  <si>
-    <t>CHI1232716-CHI8406307</t>
-  </si>
-  <si>
-    <t>SZPV50726600</t>
-  </si>
-  <si>
-    <t>FXLU9074931</t>
-  </si>
-  <si>
-    <t>CHI1232716-CHI8406302</t>
-  </si>
-  <si>
-    <t>TCLU2227476</t>
-  </si>
-  <si>
-    <t>CHI1232716-CHI8406306</t>
-  </si>
-  <si>
-    <t>HKGV69813300</t>
-  </si>
-  <si>
-    <t>NYKU8477051</t>
-  </si>
-  <si>
-    <t>CHI1232840-CHI8406826</t>
-  </si>
-  <si>
-    <t>TY8NJ7353400</t>
-  </si>
-  <si>
-    <t>BMOU3143732</t>
-  </si>
-  <si>
-    <t>CHI1232840-CHI8406828</t>
-  </si>
-  <si>
-    <t>TCLU9665556</t>
-  </si>
-  <si>
-    <t>MOL BENEFACTOR</t>
-  </si>
-  <si>
-    <t>0052</t>
-  </si>
-  <si>
-    <t>CHI1236589-CHI8434733</t>
-  </si>
-  <si>
-    <t>SZPV56450601</t>
-  </si>
-  <si>
-    <t>TCNU2252521</t>
-  </si>
-  <si>
-    <t>CHI1236589-CHI8434732</t>
-  </si>
-  <si>
-    <t>TCNU4806670</t>
-  </si>
-  <si>
-    <t>CHI1236587-CHI8434729</t>
-  </si>
-  <si>
-    <t>SZPV56450603</t>
-  </si>
-  <si>
-    <t>FDCU0446219</t>
-  </si>
-  <si>
-    <t>CHI1236587-CHI8434728</t>
-  </si>
-  <si>
-    <t>KKTU7926193</t>
-  </si>
-  <si>
-    <t>CHI1236590-CHI8434731</t>
-  </si>
-  <si>
-    <t>SZPV56450602</t>
-  </si>
-  <si>
-    <t>TCLU8299262</t>
-  </si>
-  <si>
-    <t>CHI1236514-CHI8432190</t>
-  </si>
-  <si>
-    <t>COKV02476500</t>
-  </si>
-  <si>
-    <t>KKFU6742936</t>
-  </si>
-  <si>
-    <t>CHI1236565-CHI8400564</t>
-  </si>
-  <si>
-    <t>HKGV49922900</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -546,7 +552,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -564,18 +570,294 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:G61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -608,12 +890,11 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2"/>
       <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -626,12 +907,11 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3"/>
       <c r="F3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -644,12 +924,11 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4"/>
       <c r="F4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -662,12 +941,11 @@
       <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E5"/>
       <c r="F5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -680,12 +958,11 @@
       <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -698,12 +975,11 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="E7"/>
       <c r="F7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -716,12 +992,11 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8"/>
       <c r="F8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -734,12 +1009,11 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9"/>
       <c r="F9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -752,12 +1026,11 @@
       <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="E10"/>
       <c r="F10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -770,12 +1043,11 @@
       <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="E11"/>
       <c r="F11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -788,12 +1060,11 @@
       <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E12"/>
       <c r="F12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -806,12 +1077,11 @@
       <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="E13"/>
       <c r="F13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -824,12 +1094,11 @@
       <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="E14"/>
       <c r="F14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -842,14 +1111,13 @@
       <c r="D15" t="s">
         <v>54</v>
       </c>
-      <c r="E15"/>
       <c r="F15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -858,16 +1126,15 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16"/>
+        <v>169</v>
+      </c>
       <c r="F16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -876,16 +1143,15 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17"/>
+        <v>167</v>
+      </c>
       <c r="F17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -894,16 +1160,15 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18"/>
+        <v>165</v>
+      </c>
       <c r="F18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -912,16 +1177,15 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19"/>
+        <v>163</v>
+      </c>
       <c r="F19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -930,16 +1194,15 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20"/>
+        <v>161</v>
+      </c>
       <c r="F20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -948,16 +1211,15 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21"/>
+        <v>158</v>
+      </c>
       <c r="F21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -966,16 +1228,15 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22"/>
+        <v>155</v>
+      </c>
       <c r="F22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -984,16 +1245,15 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23"/>
+        <v>153</v>
+      </c>
       <c r="F23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1002,16 +1262,15 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24"/>
+        <v>151</v>
+      </c>
       <c r="F24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -1020,16 +1279,15 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25"/>
+        <v>149</v>
+      </c>
       <c r="F25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1038,16 +1296,15 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26"/>
+        <v>146</v>
+      </c>
       <c r="F26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1056,16 +1313,15 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27"/>
+        <v>144</v>
+      </c>
       <c r="F27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1074,16 +1330,15 @@
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28"/>
+        <v>142</v>
+      </c>
       <c r="F28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -1092,16 +1347,15 @@
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29"/>
+        <v>140</v>
+      </c>
       <c r="F29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -1110,16 +1364,15 @@
         <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30"/>
+        <v>138</v>
+      </c>
       <c r="F30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -1128,16 +1381,15 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31"/>
+        <v>135</v>
+      </c>
       <c r="F31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -1146,16 +1398,15 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32"/>
+        <v>132</v>
+      </c>
       <c r="F32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -1164,16 +1415,15 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33"/>
+        <v>130</v>
+      </c>
       <c r="F33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -1182,16 +1432,15 @@
         <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34"/>
+        <v>127</v>
+      </c>
       <c r="F34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -1200,16 +1449,15 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35"/>
+        <v>124</v>
+      </c>
       <c r="F35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -1218,16 +1466,15 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36"/>
+        <v>122</v>
+      </c>
       <c r="F36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
@@ -1236,16 +1483,15 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37"/>
+        <v>119</v>
+      </c>
       <c r="F37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1254,16 +1500,15 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38"/>
+        <v>117</v>
+      </c>
       <c r="F38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1272,16 +1517,15 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39"/>
+        <v>115</v>
+      </c>
       <c r="F39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>115</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1290,16 +1534,15 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40"/>
+        <v>113</v>
+      </c>
       <c r="F40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1308,16 +1551,15 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41"/>
+        <v>111</v>
+      </c>
       <c r="F41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
@@ -1326,16 +1568,15 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42"/>
+        <v>108</v>
+      </c>
       <c r="F42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -1344,16 +1585,15 @@
         <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43"/>
+        <v>106</v>
+      </c>
       <c r="F43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -1362,16 +1602,15 @@
         <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
-      </c>
-      <c r="E44"/>
+        <v>104</v>
+      </c>
       <c r="F44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -1380,16 +1619,15 @@
         <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45"/>
+        <v>102</v>
+      </c>
       <c r="F45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -1398,16 +1636,15 @@
         <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
-      </c>
-      <c r="E46"/>
+        <v>99</v>
+      </c>
       <c r="F46" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -1416,16 +1653,15 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47"/>
+        <v>96</v>
+      </c>
       <c r="F47" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
         <v>33</v>
@@ -1434,16 +1670,15 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
-      </c>
-      <c r="E48"/>
+        <v>93</v>
+      </c>
       <c r="F48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
@@ -1452,16 +1687,15 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
-      </c>
-      <c r="E49"/>
+        <v>90</v>
+      </c>
       <c r="F49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
@@ -1470,16 +1704,15 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50"/>
+        <v>88</v>
+      </c>
       <c r="F50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
@@ -1488,16 +1721,15 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
-      </c>
-      <c r="E51"/>
+        <v>85</v>
+      </c>
       <c r="F51" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
@@ -1506,16 +1738,15 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
-      </c>
-      <c r="E52"/>
+        <v>82</v>
+      </c>
       <c r="F52" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
         <v>25</v>
@@ -1524,16 +1755,15 @@
         <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
-      </c>
-      <c r="E53"/>
+        <v>79</v>
+      </c>
       <c r="F53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
         <v>25</v>
@@ -1542,106 +1772,100 @@
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
-      </c>
-      <c r="E54"/>
+        <v>76</v>
+      </c>
       <c r="F54" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
-      </c>
-      <c r="E55"/>
+        <v>74</v>
+      </c>
       <c r="F55" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>156</v>
-      </c>
-      <c r="E56"/>
+        <v>72</v>
+      </c>
       <c r="F56" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
-      </c>
-      <c r="E57"/>
+        <v>69</v>
+      </c>
       <c r="F57" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
-      </c>
-      <c r="E58"/>
+        <v>67</v>
+      </c>
       <c r="F58" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>163</v>
-      </c>
-      <c r="E59"/>
+        <v>62</v>
+      </c>
       <c r="F59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -1650,16 +1874,15 @@
         <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>166</v>
-      </c>
-      <c r="E60"/>
+        <v>59</v>
+      </c>
       <c r="F60" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
@@ -1668,14 +1891,13 @@
         <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>169</v>
-      </c>
-      <c r="E61"/>
+        <v>56</v>
+      </c>
       <c r="F61" t="s">
-        <v>170</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TPOAK/Test.xlsx
+++ b/TPOAK/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="164">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -74,30 +74,6 @@
     <t>SZPV57191900</t>
   </si>
   <si>
-    <t>CAIU8607395</t>
-  </si>
-  <si>
-    <t>NYK ATLAS</t>
-  </si>
-  <si>
-    <t>0107</t>
-  </si>
-  <si>
-    <t>CHI1244061-CHI8492659</t>
-  </si>
-  <si>
-    <t>SGNV52653400</t>
-  </si>
-  <si>
-    <t>TRLU7392739</t>
-  </si>
-  <si>
-    <t>CHI1244061-CHI8492661</t>
-  </si>
-  <si>
-    <t>SGNV55008800</t>
-  </si>
-  <si>
     <t>MOTU1416260</t>
   </si>
   <si>
@@ -119,24 +95,6 @@
     <t>CHI1247940-CHI8515471</t>
   </si>
   <si>
-    <t>NYKU4206180</t>
-  </si>
-  <si>
-    <t>CHI1243614-CHI8489948</t>
-  </si>
-  <si>
-    <t>CMBV03416500</t>
-  </si>
-  <si>
-    <t>NYKU4026147</t>
-  </si>
-  <si>
-    <t>CHI1243621-CHI8489951</t>
-  </si>
-  <si>
-    <t>CMBV05549700</t>
-  </si>
-  <si>
     <t>TCNU4878936</t>
   </si>
   <si>
@@ -146,33 +104,6 @@
     <t>SGNV51920700</t>
   </si>
   <si>
-    <t>CAIU9464370</t>
-  </si>
-  <si>
-    <t>CHI1244061-CHI8492657</t>
-  </si>
-  <si>
-    <t>SGNV47036300</t>
-  </si>
-  <si>
-    <t>NYKU4208861</t>
-  </si>
-  <si>
-    <t>CHI1244061-CHI8492653</t>
-  </si>
-  <si>
-    <t>SGNV47035900</t>
-  </si>
-  <si>
-    <t>TCNU4970615</t>
-  </si>
-  <si>
-    <t>CHI1244061-CHI8492649</t>
-  </si>
-  <si>
-    <t>DADV01224800</t>
-  </si>
-  <si>
     <t>MOTU1420450</t>
   </si>
   <si>
@@ -200,21 +131,6 @@
     <t>SGNV57786900</t>
   </si>
   <si>
-    <t>TLLU5715430</t>
-  </si>
-  <si>
-    <t>CHI1244061-CHI8492665</t>
-  </si>
-  <si>
-    <t>TCNU5604652</t>
-  </si>
-  <si>
-    <t>CHI1244061-CHI8492664</t>
-  </si>
-  <si>
-    <t>DADV01218400</t>
-  </si>
-  <si>
     <t>TCLU4689914</t>
   </si>
   <si>
@@ -287,48 +203,6 @@
     <t>CHI1247942-CHI8515465</t>
   </si>
   <si>
-    <t>KKFU1485178</t>
-  </si>
-  <si>
-    <t>CHI1244061-CHI8492652</t>
-  </si>
-  <si>
-    <t>PKGV16553800</t>
-  </si>
-  <si>
-    <t>SEGU5075315</t>
-  </si>
-  <si>
-    <t>CHI1243646-CHI8489953</t>
-  </si>
-  <si>
-    <t>DELV14331700</t>
-  </si>
-  <si>
-    <t>SEGU4772589</t>
-  </si>
-  <si>
-    <t>CHI1244061-CHI8492655</t>
-  </si>
-  <si>
-    <t>MOAU6739721</t>
-  </si>
-  <si>
-    <t>CHI1243649-CHI8489952</t>
-  </si>
-  <si>
-    <t>DELV13865400</t>
-  </si>
-  <si>
-    <t>TCLU1532515</t>
-  </si>
-  <si>
-    <t>CHI1243655-CHI8489958</t>
-  </si>
-  <si>
-    <t>DELV15450300</t>
-  </si>
-  <si>
     <t>NYKU4233400</t>
   </si>
   <si>
@@ -347,24 +221,6 @@
     <t>CHI1247944-CHI8515480</t>
   </si>
   <si>
-    <t>KKFU8066933</t>
-  </si>
-  <si>
-    <t>CHI1244061-CHI8492662</t>
-  </si>
-  <si>
-    <t>DADV01217300</t>
-  </si>
-  <si>
-    <t>TGBU5123180</t>
-  </si>
-  <si>
-    <t>CHI1244061-CHI8492658</t>
-  </si>
-  <si>
-    <t>SGNV51914300</t>
-  </si>
-  <si>
     <t>TEMU0761200</t>
   </si>
   <si>
@@ -374,42 +230,6 @@
     <t>TY8NC9740800</t>
   </si>
   <si>
-    <t>NYKU4424900</t>
-  </si>
-  <si>
-    <t>CHI1243627-CHI8489946</t>
-  </si>
-  <si>
-    <t>CMBV02456800</t>
-  </si>
-  <si>
-    <t>KKFU7774753</t>
-  </si>
-  <si>
-    <t>CHI1243660-CHI8489954</t>
-  </si>
-  <si>
-    <t>DELV14686600</t>
-  </si>
-  <si>
-    <t>TGCU0209010</t>
-  </si>
-  <si>
-    <t>CHI1243619-CHI8489949</t>
-  </si>
-  <si>
-    <t>CMBV04101400</t>
-  </si>
-  <si>
-    <t>TCNU6096453</t>
-  </si>
-  <si>
-    <t>CHI1243632-CHI8489955</t>
-  </si>
-  <si>
-    <t>DELV14819400</t>
-  </si>
-  <si>
     <t>TCKU2947930</t>
   </si>
   <si>
@@ -443,15 +263,6 @@
     <t>CHI1252603-CHI8546905</t>
   </si>
   <si>
-    <t>TEMU7494240</t>
-  </si>
-  <si>
-    <t>CHI1243613-CHI8489950</t>
-  </si>
-  <si>
-    <t>CMBV04844400</t>
-  </si>
-  <si>
     <t>GATU8640488</t>
   </si>
   <si>
@@ -476,24 +287,6 @@
     <t>CHI1248082-CHI8516157</t>
   </si>
   <si>
-    <t>KKFU7894260</t>
-  </si>
-  <si>
-    <t>CHI1244061-CHI8492650</t>
-  </si>
-  <si>
-    <t>TTNU4853801</t>
-  </si>
-  <si>
-    <t>CHI1244061-CHI8492666</t>
-  </si>
-  <si>
-    <t>TCLU6245101</t>
-  </si>
-  <si>
-    <t>CHI1244061-CHI8492654</t>
-  </si>
-  <si>
     <t>GESU5710782</t>
   </si>
   <si>
@@ -560,184 +353,118 @@
     <t>CHI1247944-CHI8515478</t>
   </si>
   <si>
-    <t>TCLU9804374</t>
-  </si>
-  <si>
-    <t>YM MATURITY</t>
+    <t>COLU5900192</t>
+  </si>
+  <si>
+    <t>CHI1252603-CHI8546901</t>
+  </si>
+  <si>
+    <t>DFSU4005513</t>
+  </si>
+  <si>
+    <t>CHI1252603-CHI8546895</t>
+  </si>
+  <si>
+    <t>XMNV24695500</t>
+  </si>
+  <si>
+    <t>TGHU9863210</t>
+  </si>
+  <si>
+    <t>CHI1252603-CHI8546908</t>
+  </si>
+  <si>
+    <t>SZPV53588826</t>
+  </si>
+  <si>
+    <t>NYKU3800161</t>
+  </si>
+  <si>
+    <t>CHI1248082-CHI8516158</t>
+  </si>
+  <si>
+    <t>TY8NB2841900</t>
+  </si>
+  <si>
+    <t>DRYU2402629</t>
+  </si>
+  <si>
+    <t>CHI1252603-CHI8546906</t>
+  </si>
+  <si>
+    <t>SZPV53588803</t>
+  </si>
+  <si>
+    <t>FSCU4232467</t>
+  </si>
+  <si>
+    <t>CHI1252603-CHI8546922</t>
+  </si>
+  <si>
+    <t>XMNV24700600</t>
+  </si>
+  <si>
+    <t>LFIU2077153</t>
+  </si>
+  <si>
+    <t>CHI1252603-CHI8546917</t>
+  </si>
+  <si>
+    <t>SZPV55894300</t>
+  </si>
+  <si>
+    <t>COLU5900206</t>
+  </si>
+  <si>
+    <t>CHI1252603-CHI8546902</t>
+  </si>
+  <si>
+    <t>FXLU8145136</t>
+  </si>
+  <si>
+    <t>CHI1252603-CHI8546912</t>
+  </si>
+  <si>
+    <t>HKGV69761514</t>
+  </si>
+  <si>
+    <t>FXLU9074910</t>
+  </si>
+  <si>
+    <t>CHI1252603-CHI8546904</t>
+  </si>
+  <si>
+    <t>GLDU7524593</t>
+  </si>
+  <si>
+    <t>CHI1252603-CHI8546909</t>
+  </si>
+  <si>
+    <t>TCNU4377657</t>
+  </si>
+  <si>
+    <t>CHI1247937-CHI8515475</t>
+  </si>
+  <si>
+    <t>FDCU0358798</t>
+  </si>
+  <si>
+    <t>CHI1247940-CHI8515473</t>
+  </si>
+  <si>
+    <t>TRLU7407715</t>
+  </si>
+  <si>
+    <t>CHI1247942-CHI8515467</t>
+  </si>
+  <si>
+    <t>TEMU0764426</t>
+  </si>
+  <si>
+    <t>NYK OCEANUS</t>
   </si>
   <si>
     <t>0059</t>
-  </si>
-  <si>
-    <t>CHI1243664-CHI8489945</t>
-  </si>
-  <si>
-    <t>MNLV11829900</t>
-  </si>
-  <si>
-    <t>COLU5900192</t>
-  </si>
-  <si>
-    <t>CHI1252603-CHI8546901</t>
-  </si>
-  <si>
-    <t>DFSU4005513</t>
-  </si>
-  <si>
-    <t>CHI1252603-CHI8546895</t>
-  </si>
-  <si>
-    <t>XMNV24695500</t>
-  </si>
-  <si>
-    <t>TGHU9863210</t>
-  </si>
-  <si>
-    <t>CHI1252603-CHI8546908</t>
-  </si>
-  <si>
-    <t>SZPV53588826</t>
-  </si>
-  <si>
-    <t>KKFU8064519</t>
-  </si>
-  <si>
-    <t>CHI1243644-CHI8489956</t>
-  </si>
-  <si>
-    <t>DELV14826900</t>
-  </si>
-  <si>
-    <t>TEMU5820796</t>
-  </si>
-  <si>
-    <t>CHI1244061-CHI8492663</t>
-  </si>
-  <si>
-    <t>TCLU7980749</t>
-  </si>
-  <si>
-    <t>CHI1244061-CHI8492656</t>
-  </si>
-  <si>
-    <t>NYKU5746500</t>
-  </si>
-  <si>
-    <t>CHI1243625-CHI8489947</t>
-  </si>
-  <si>
-    <t>CMBV03413900</t>
-  </si>
-  <si>
-    <t>NYKU3800161</t>
-  </si>
-  <si>
-    <t>CHI1248082-CHI8516158</t>
-  </si>
-  <si>
-    <t>TY8NB2841900</t>
-  </si>
-  <si>
-    <t>MOFU0637977</t>
-  </si>
-  <si>
-    <t>CHI1243657-CHI8489957</t>
-  </si>
-  <si>
-    <t>DELV15393900</t>
-  </si>
-  <si>
-    <t>DRYU2402629</t>
-  </si>
-  <si>
-    <t>CHI1252603-CHI8546906</t>
-  </si>
-  <si>
-    <t>SZPV53588803</t>
-  </si>
-  <si>
-    <t>FSCU4232467</t>
-  </si>
-  <si>
-    <t>CHI1252603-CHI8546922</t>
-  </si>
-  <si>
-    <t>XMNV24700600</t>
-  </si>
-  <si>
-    <t>LFIU2077153</t>
-  </si>
-  <si>
-    <t>CHI1252603-CHI8546917</t>
-  </si>
-  <si>
-    <t>SZPV55894300</t>
-  </si>
-  <si>
-    <t>COLU5900206</t>
-  </si>
-  <si>
-    <t>CHI1252603-CHI8546902</t>
-  </si>
-  <si>
-    <t>FXLU8145136</t>
-  </si>
-  <si>
-    <t>CHI1252603-CHI8546912</t>
-  </si>
-  <si>
-    <t>HKGV69761514</t>
-  </si>
-  <si>
-    <t>FXLU9074910</t>
-  </si>
-  <si>
-    <t>CHI1252603-CHI8546904</t>
-  </si>
-  <si>
-    <t>GLDU7524593</t>
-  </si>
-  <si>
-    <t>CHI1252603-CHI8546909</t>
-  </si>
-  <si>
-    <t>TCNU4377657</t>
-  </si>
-  <si>
-    <t>CHI1247937-CHI8515475</t>
-  </si>
-  <si>
-    <t>FDCU0358798</t>
-  </si>
-  <si>
-    <t>CHI1247940-CHI8515473</t>
-  </si>
-  <si>
-    <t>TRLU7407715</t>
-  </si>
-  <si>
-    <t>CHI1247942-CHI8515467</t>
-  </si>
-  <si>
-    <t>MOAU0775450</t>
-  </si>
-  <si>
-    <t>CHI1244061-CHI8492660</t>
-  </si>
-  <si>
-    <t>SGNV53466700</t>
-  </si>
-  <si>
-    <t>TCLU4668151</t>
-  </si>
-  <si>
-    <t>CHI1244061-CHI8492651</t>
-  </si>
-  <si>
-    <t>TEMU0764426</t>
-  </si>
-  <si>
-    <t>NYK OCEANUS</t>
   </si>
   <si>
     <t>CHI1252408-CHI8545916</t>
@@ -821,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -952,39 +679,39 @@
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
@@ -993,49 +720,49 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>42</v>
@@ -1050,10 +777,10 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
@@ -1068,10 +795,10 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
@@ -1086,10 +813,10 @@
         <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
@@ -1104,10 +831,10 @@
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
         <v>54</v>
@@ -1122,10 +849,10 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>57</v>
@@ -1140,112 +867,112 @@
         <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>60</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
         <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
         <v>64</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1254,16 +981,16 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1272,106 +999,106 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
@@ -1380,106 +1107,106 @@
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
@@ -1488,16 +1215,16 @@
         <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
@@ -1506,124 +1233,124 @@
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -1632,16 +1359,16 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -1650,16 +1377,16 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1668,34 +1395,34 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1704,16 +1431,16 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -1722,34 +1449,34 @@
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
@@ -1758,16 +1485,16 @@
         <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -1776,16 +1503,16 @@
         <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
@@ -1794,695 +1521,119 @@
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>174</v>
-      </c>
-      <c r="B61" t="s">
         <v>29</v>
-      </c>
-      <c r="C61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" t="s">
-        <v>175</v>
-      </c>
-      <c r="E61"/>
-      <c r="F61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>176</v>
-      </c>
-      <c r="B62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" t="s">
-        <v>177</v>
-      </c>
-      <c r="E62"/>
-      <c r="F62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>178</v>
-      </c>
-      <c r="B63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" t="s">
-        <v>179</v>
-      </c>
-      <c r="E63"/>
-      <c r="F63" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>180</v>
-      </c>
-      <c r="B64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" t="s">
-        <v>181</v>
-      </c>
-      <c r="E64"/>
-      <c r="F64" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>182</v>
-      </c>
-      <c r="B65" t="s">
-        <v>183</v>
-      </c>
-      <c r="C65" t="s">
-        <v>184</v>
-      </c>
-      <c r="D65" t="s">
-        <v>185</v>
-      </c>
-      <c r="E65"/>
-      <c r="F65" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>187</v>
-      </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" t="s">
-        <v>188</v>
-      </c>
-      <c r="E66"/>
-      <c r="F66" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>189</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" t="s">
-        <v>190</v>
-      </c>
-      <c r="E67"/>
-      <c r="F67" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>192</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" t="s">
-        <v>193</v>
-      </c>
-      <c r="E68"/>
-      <c r="F68" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>195</v>
-      </c>
-      <c r="B69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" t="s">
-        <v>196</v>
-      </c>
-      <c r="E69"/>
-      <c r="F69" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>198</v>
-      </c>
-      <c r="B70" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" t="s">
-        <v>199</v>
-      </c>
-      <c r="E70"/>
-      <c r="F70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>200</v>
-      </c>
-      <c r="B71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" t="s">
-        <v>201</v>
-      </c>
-      <c r="E71"/>
-      <c r="F71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>202</v>
-      </c>
-      <c r="B72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" t="s">
-        <v>203</v>
-      </c>
-      <c r="E72"/>
-      <c r="F72" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>205</v>
-      </c>
-      <c r="B73" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" t="s">
-        <v>206</v>
-      </c>
-      <c r="E73"/>
-      <c r="F73" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>208</v>
-      </c>
-      <c r="B74" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" t="s">
-        <v>209</v>
-      </c>
-      <c r="E74"/>
-      <c r="F74" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>211</v>
-      </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" t="s">
-        <v>212</v>
-      </c>
-      <c r="E75"/>
-      <c r="F75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>214</v>
-      </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" t="s">
-        <v>215</v>
-      </c>
-      <c r="E76"/>
-      <c r="F76" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>217</v>
-      </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" t="s">
-        <v>218</v>
-      </c>
-      <c r="E77"/>
-      <c r="F77" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>220</v>
-      </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" t="s">
-        <v>221</v>
-      </c>
-      <c r="E78"/>
-      <c r="F78" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>222</v>
-      </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" t="s">
-        <v>223</v>
-      </c>
-      <c r="E79"/>
-      <c r="F79" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>225</v>
-      </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" t="s">
-        <v>226</v>
-      </c>
-      <c r="E80"/>
-      <c r="F80" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>227</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" t="s">
-        <v>228</v>
-      </c>
-      <c r="E81"/>
-      <c r="F81" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>229</v>
-      </c>
-      <c r="B82" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" t="s">
-        <v>230</v>
-      </c>
-      <c r="E82"/>
-      <c r="F82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>231</v>
-      </c>
-      <c r="B83" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" t="s">
-        <v>232</v>
-      </c>
-      <c r="E83"/>
-      <c r="F83" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>233</v>
-      </c>
-      <c r="B84" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" t="s">
-        <v>30</v>
-      </c>
-      <c r="D84" t="s">
-        <v>234</v>
-      </c>
-      <c r="E84"/>
-      <c r="F84" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>235</v>
-      </c>
-      <c r="B85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" t="s">
-        <v>236</v>
-      </c>
-      <c r="E85"/>
-      <c r="F85" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>238</v>
-      </c>
-      <c r="B86" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" t="s">
-        <v>22</v>
-      </c>
-      <c r="D86" t="s">
-        <v>239</v>
-      </c>
-      <c r="E86"/>
-      <c r="F86" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>240</v>
-      </c>
-      <c r="B87" t="s">
-        <v>241</v>
-      </c>
-      <c r="C87" t="s">
-        <v>184</v>
-      </c>
-      <c r="D87" t="s">
-        <v>242</v>
-      </c>
-      <c r="E87"/>
-      <c r="F87" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>244</v>
-      </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" t="s">
-        <v>245</v>
-      </c>
-      <c r="E88"/>
-      <c r="F88" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>247</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" t="s">
-        <v>248</v>
-      </c>
-      <c r="E89"/>
-      <c r="F89" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>249</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" t="s">
-        <v>250</v>
-      </c>
-      <c r="E90"/>
-      <c r="F90" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>251</v>
-      </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" t="s">
-        <v>252</v>
-      </c>
-      <c r="E91"/>
-      <c r="F91" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>253</v>
-      </c>
-      <c r="B92" t="s">
-        <v>29</v>
-      </c>
-      <c r="C92" t="s">
-        <v>30</v>
-      </c>
-      <c r="D92" t="s">
-        <v>254</v>
-      </c>
-      <c r="E92"/>
-      <c r="F92" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/TPOAK/Test.xlsx
+++ b/TPOAK/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="187">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,361 +32,547 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>ONEU0118556</t>
-  </si>
-  <si>
-    <t>ONE OLYMPUS</t>
-  </si>
-  <si>
-    <t>0056</t>
-  </si>
-  <si>
-    <t>CHI1351688-CHI9265425</t>
-  </si>
-  <si>
-    <t>OS8NE4248500</t>
-  </si>
-  <si>
-    <t>TCNU3942455</t>
-  </si>
-  <si>
-    <t>CHI1351693-CHI9265427</t>
-  </si>
-  <si>
-    <t>OS8NE4247400</t>
-  </si>
-  <si>
-    <t>TLLU6126374</t>
-  </si>
-  <si>
-    <t>YM MASCULINITY</t>
-  </si>
-  <si>
-    <t>0057</t>
-  </si>
-  <si>
-    <t>CHI1351794-CHI9265623</t>
-  </si>
-  <si>
-    <t>SZPV76772801</t>
-  </si>
-  <si>
-    <t>TCLU8164272</t>
-  </si>
-  <si>
-    <t>CHI1351821-CHI9265624</t>
-  </si>
-  <si>
-    <t>MNLV15482800</t>
-  </si>
-  <si>
-    <t>KKTU7506924</t>
-  </si>
-  <si>
-    <t>CHI1351854-CHI9265620</t>
-  </si>
-  <si>
-    <t>SZPV76772802</t>
-  </si>
-  <si>
-    <t>NYKU4274890</t>
-  </si>
-  <si>
-    <t>CHI1351688-CHI9265424</t>
-  </si>
-  <si>
-    <t>TCLU1655910</t>
-  </si>
-  <si>
-    <t>NYK ARGUS</t>
-  </si>
-  <si>
-    <t>0100</t>
-  </si>
-  <si>
-    <t>CHI1347525-CHI9234203</t>
-  </si>
-  <si>
-    <t>LCBV10075300</t>
-  </si>
-  <si>
-    <t>TCLU9386417</t>
-  </si>
-  <si>
-    <t>CHI1351821-CHI9265626</t>
-  </si>
-  <si>
-    <t>NYKU5106988</t>
-  </si>
-  <si>
-    <t>CHI1351688-CHI9265432</t>
-  </si>
-  <si>
-    <t>DRYU4275380</t>
-  </si>
-  <si>
-    <t>CHI1351856-CHI9265625</t>
-  </si>
-  <si>
-    <t>MNLV15003400</t>
-  </si>
-  <si>
-    <t>TLLU5469086</t>
-  </si>
-  <si>
-    <t>CHI1351701-CHI9265422</t>
-  </si>
-  <si>
-    <t>TY8NG6372300</t>
-  </si>
-  <si>
-    <t>ONEU0232532</t>
-  </si>
-  <si>
-    <t>CHI1351701-CHI9265429</t>
-  </si>
-  <si>
-    <t>ONEU0039550</t>
-  </si>
-  <si>
-    <t>MOL BRILLIANCE</t>
-  </si>
-  <si>
-    <t>0032</t>
-  </si>
-  <si>
-    <t>CHI1351843-CHI9184291</t>
-  </si>
-  <si>
-    <t>SZPV70036904</t>
-  </si>
-  <si>
-    <t>GESU6854001</t>
-  </si>
-  <si>
-    <t>CHI1351693-CHI9265430</t>
-  </si>
-  <si>
-    <t>TCNU4899780</t>
-  </si>
-  <si>
-    <t>CHI1339796-CHI9184287</t>
-  </si>
-  <si>
-    <t>OS8NF5412700</t>
-  </si>
-  <si>
-    <t>COLU2900157</t>
-  </si>
-  <si>
-    <t>ARISTOMENIS</t>
-  </si>
-  <si>
-    <t>0006</t>
-  </si>
-  <si>
-    <t>CHI1352051-CHI9267885</t>
-  </si>
-  <si>
-    <t>HKGV90393700</t>
-  </si>
-  <si>
-    <t>TDRU0621490</t>
-  </si>
-  <si>
-    <t>CHI1352051-CHI9267876</t>
-  </si>
-  <si>
-    <t>XMNV36061900</t>
-  </si>
-  <si>
-    <t>TRHU1990993</t>
-  </si>
-  <si>
-    <t>BAI CHAY BRIDGE</t>
-  </si>
-  <si>
-    <t>0068</t>
-  </si>
-  <si>
-    <t>CHI1346795-CHI9230482</t>
-  </si>
-  <si>
-    <t>OS8NF8392300</t>
-  </si>
-  <si>
-    <t>ONEU0303003</t>
-  </si>
-  <si>
-    <t>CHI1339796-CHI9184290</t>
-  </si>
-  <si>
-    <t>TEMU7298654</t>
-  </si>
-  <si>
-    <t>YM MUTUALITY</t>
-  </si>
-  <si>
-    <t>0067</t>
-  </si>
-  <si>
-    <t>CHI1339691-CHI9183584</t>
-  </si>
-  <si>
-    <t>TPEV31532900</t>
-  </si>
-  <si>
-    <t>MOFU6724847</t>
-  </si>
-  <si>
-    <t>CHI1352051-CHI9267884</t>
-  </si>
-  <si>
-    <t>HKGV95513601</t>
-  </si>
-  <si>
-    <t>TCLU7314254</t>
-  </si>
-  <si>
-    <t>CHI1352051-CHI9267877</t>
-  </si>
-  <si>
-    <t>XMNV37990700</t>
-  </si>
-  <si>
-    <t>AXIU1496653</t>
-  </si>
-  <si>
-    <t>CHI1352051-CHI9267883</t>
-  </si>
-  <si>
-    <t>HKGV95513600</t>
-  </si>
-  <si>
-    <t>TCLU9876775</t>
-  </si>
-  <si>
-    <t>CHI1339796-CHI9184289</t>
-  </si>
-  <si>
-    <t>FDCU0463601</t>
-  </si>
-  <si>
-    <t>CHI1351701-CHI9265423</t>
-  </si>
-  <si>
-    <t>TCKU3988301</t>
-  </si>
-  <si>
-    <t>CHI1351809-CHI9265621</t>
-  </si>
-  <si>
-    <t>SZPV76772800</t>
-  </si>
-  <si>
-    <t>TCNU8663495</t>
-  </si>
-  <si>
-    <t>CHI1351693-CHI9265428</t>
-  </si>
-  <si>
-    <t>TEMU7505350</t>
-  </si>
-  <si>
-    <t>CHI1351693-CHI9265431</t>
-  </si>
-  <si>
-    <t>FCIU2807270</t>
-  </si>
-  <si>
-    <t>CHI1347525-CHI9234204</t>
-  </si>
-  <si>
-    <t>CMBV07435300</t>
-  </si>
-  <si>
-    <t>TCLU2987870</t>
-  </si>
-  <si>
-    <t>SEATTLE BRIDGE</t>
-  </si>
-  <si>
-    <t>0052</t>
-  </si>
-  <si>
-    <t>CHI1346865-CHI9230621</t>
-  </si>
-  <si>
-    <t>CMBV01994700</t>
-  </si>
-  <si>
-    <t>COLU2900199</t>
-  </si>
-  <si>
-    <t>CHI1352051-CHI9267882</t>
-  </si>
-  <si>
-    <t>COLU2900162</t>
-  </si>
-  <si>
-    <t>CHI1352051-CHI9267881</t>
-  </si>
-  <si>
-    <t>MOTU5804243</t>
-  </si>
-  <si>
-    <t>CHI1339796-CHI9184288</t>
-  </si>
-  <si>
-    <t>TCLU1685622</t>
-  </si>
-  <si>
-    <t>CHI1339691-CHI9183585</t>
-  </si>
-  <si>
-    <t>TPEV34746500</t>
-  </si>
-  <si>
-    <t>FDCU0358123</t>
-  </si>
-  <si>
-    <t>CHI1351693-CHI9265421</t>
-  </si>
-  <si>
-    <t>FXLU6001870</t>
-  </si>
-  <si>
-    <t>CHI1352051-CHI9267880</t>
-  </si>
-  <si>
-    <t>HKGV95842400</t>
-  </si>
-  <si>
-    <t>TCLU8493160</t>
-  </si>
-  <si>
-    <t>CHI1352051-CHI9267878</t>
-  </si>
-  <si>
-    <t>HKGV86231300</t>
-  </si>
-  <si>
-    <t>COLU2900202</t>
-  </si>
-  <si>
-    <t>CHI1352051-CHI9267879</t>
-  </si>
-  <si>
-    <t>KKFU7588609</t>
-  </si>
-  <si>
-    <t>CHI1351794-CHI9265622</t>
-  </si>
-  <si>
-    <t>NYKU4172706</t>
-  </si>
-  <si>
-    <t>CHI1351688-CHI9265426</t>
+    <t>TCLU6508548</t>
+  </si>
+  <si>
+    <t>MOL PRESTIGE</t>
+  </si>
+  <si>
+    <t>0059</t>
+  </si>
+  <si>
+    <t>CHI1391347-CHI9559319</t>
+  </si>
+  <si>
+    <t>CMBV09116800</t>
+  </si>
+  <si>
+    <t>KKFU1787727</t>
+  </si>
+  <si>
+    <t>CHI1391350-CHI9559318</t>
+  </si>
+  <si>
+    <t>CMBV09004400</t>
+  </si>
+  <si>
+    <t>TEMU8907626</t>
+  </si>
+  <si>
+    <t>CHI1391629-CHI9559331</t>
+  </si>
+  <si>
+    <t>SGNV88020800</t>
+  </si>
+  <si>
+    <t>DRYU9989396</t>
+  </si>
+  <si>
+    <t>CHI1391570-CHI9559313</t>
+  </si>
+  <si>
+    <t>SGNV72385800</t>
+  </si>
+  <si>
+    <t>KKFU7536420</t>
+  </si>
+  <si>
+    <t>CHI1391577-CHI9559340</t>
+  </si>
+  <si>
+    <t>SGNV84537300</t>
+  </si>
+  <si>
+    <t>NYKU4339408</t>
+  </si>
+  <si>
+    <t>CHI1391577-CHI9559334</t>
+  </si>
+  <si>
+    <t>DRYU9456191</t>
+  </si>
+  <si>
+    <t>CHI1391577-CHI9559335</t>
+  </si>
+  <si>
+    <t>TCLU6624825</t>
+  </si>
+  <si>
+    <t>CHI1391577-CHI9559337</t>
+  </si>
+  <si>
+    <t>KKFU9132670</t>
+  </si>
+  <si>
+    <t>MOL BREEZE</t>
+  </si>
+  <si>
+    <t>0028</t>
+  </si>
+  <si>
+    <t>CHI1391465-CHI9559296</t>
+  </si>
+  <si>
+    <t>SZPV81491900</t>
+  </si>
+  <si>
+    <t>NYKU5655566</t>
+  </si>
+  <si>
+    <t>CHI1391328-CHI9559321</t>
+  </si>
+  <si>
+    <t>CMBV09118300</t>
+  </si>
+  <si>
+    <t>TCLU7878640</t>
+  </si>
+  <si>
+    <t>CHI1391570-CHI9559330</t>
+  </si>
+  <si>
+    <t>NYKU0816349</t>
+  </si>
+  <si>
+    <t>CHI1391570-CHI9559326</t>
+  </si>
+  <si>
+    <t>KKFU7809166</t>
+  </si>
+  <si>
+    <t>CHI1391577-CHI9559332</t>
+  </si>
+  <si>
+    <t>CAIU9138590</t>
+  </si>
+  <si>
+    <t>CHI1391577-CHI9559339</t>
+  </si>
+  <si>
+    <t>NYKU4632170</t>
+  </si>
+  <si>
+    <t>CHI1391534-CHI9559257</t>
+  </si>
+  <si>
+    <t>SZPV81491903</t>
+  </si>
+  <si>
+    <t>NYKU0802670</t>
+  </si>
+  <si>
+    <t>CHI1391577-CHI9559333</t>
+  </si>
+  <si>
+    <t>HJMU4260903</t>
+  </si>
+  <si>
+    <t>CHI1391334-CHI9559317</t>
+  </si>
+  <si>
+    <t>CMBV08491600</t>
+  </si>
+  <si>
+    <t>KKFU9168035</t>
+  </si>
+  <si>
+    <t>CHI1391515-CHI9559258</t>
+  </si>
+  <si>
+    <t>SZPV81491902</t>
+  </si>
+  <si>
+    <t>FCIU8797267</t>
+  </si>
+  <si>
+    <t>CHI1391624-CHI9559327</t>
+  </si>
+  <si>
+    <t>SGNV72390400</t>
+  </si>
+  <si>
+    <t>TCLU9653323</t>
+  </si>
+  <si>
+    <t>CHI1391358-CHI9559322</t>
+  </si>
+  <si>
+    <t>CMBV09119400</t>
+  </si>
+  <si>
+    <t>KKFU9079730</t>
+  </si>
+  <si>
+    <t>CHI1391454-CHI9559259</t>
+  </si>
+  <si>
+    <t>SZPV81491901</t>
+  </si>
+  <si>
+    <t>TCKU4522540</t>
+  </si>
+  <si>
+    <t>CHI1391598-CHI9559316</t>
+  </si>
+  <si>
+    <t>ALYV02606500</t>
+  </si>
+  <si>
+    <t>MOTU6734198</t>
+  </si>
+  <si>
+    <t>CHI1391338-CHI9559320</t>
+  </si>
+  <si>
+    <t>CMBV09117900</t>
+  </si>
+  <si>
+    <t>KKFU8101994</t>
+  </si>
+  <si>
+    <t>CHI1391570-CHI9559328</t>
+  </si>
+  <si>
+    <t>MOTU0758546</t>
+  </si>
+  <si>
+    <t>CHI1391577-CHI9559314</t>
+  </si>
+  <si>
+    <t>TCLU5893922</t>
+  </si>
+  <si>
+    <t>CHI1391577-CHI9559336</t>
+  </si>
+  <si>
+    <t>TGHU6468001</t>
+  </si>
+  <si>
+    <t>CHI1391577-CHI9559338</t>
+  </si>
+  <si>
+    <t>BSIU2842690</t>
+  </si>
+  <si>
+    <t>CHI1391654-CHI9559325</t>
+  </si>
+  <si>
+    <t>DELV20827700</t>
+  </si>
+  <si>
+    <t>NYKU4936511</t>
+  </si>
+  <si>
+    <t>CHI1391659-CHI9559324</t>
+  </si>
+  <si>
+    <t>DELV20165900</t>
+  </si>
+  <si>
+    <t>NYKU4793534</t>
+  </si>
+  <si>
+    <t>CHI1391344-CHI9559323</t>
+  </si>
+  <si>
+    <t>CMBV08628800</t>
+  </si>
+  <si>
+    <t>TEMU8822792</t>
+  </si>
+  <si>
+    <t>CHI1391570-CHI9559329</t>
+  </si>
+  <si>
+    <t>FXLU1762563</t>
+  </si>
+  <si>
+    <t>MOL BENEFACTOR</t>
+  </si>
+  <si>
+    <t>0053</t>
+  </si>
+  <si>
+    <t>CHI1392580-CHI9566901</t>
+  </si>
+  <si>
+    <t>HKGVA4471700</t>
+  </si>
+  <si>
+    <t>ONEU0086124</t>
+  </si>
+  <si>
+    <t>NYK ORION</t>
+  </si>
+  <si>
+    <t>0060</t>
+  </si>
+  <si>
+    <t>CHI1396411-CHI9597186</t>
+  </si>
+  <si>
+    <t>OS8NF6503900</t>
+  </si>
+  <si>
+    <t>CAIU8784050</t>
+  </si>
+  <si>
+    <t>CHI1396415-CHI9597185</t>
+  </si>
+  <si>
+    <t>OS8NF2233500</t>
+  </si>
+  <si>
+    <t>TCLU1893170</t>
+  </si>
+  <si>
+    <t>NYK ORPHEUS</t>
+  </si>
+  <si>
+    <t>0055</t>
+  </si>
+  <si>
+    <t>CHI1392127-CHI9562870</t>
+  </si>
+  <si>
+    <t>OS8NE4251600</t>
+  </si>
+  <si>
+    <t>FXLU1762590</t>
+  </si>
+  <si>
+    <t>CHI1392580-CHI9566903</t>
+  </si>
+  <si>
+    <t>HKGVA5452700</t>
+  </si>
+  <si>
+    <t>FXLU5032990</t>
+  </si>
+  <si>
+    <t>CHI1392580-CHI9566904</t>
+  </si>
+  <si>
+    <t>FXLU1743861</t>
+  </si>
+  <si>
+    <t>CHI1392580-CHI9566900</t>
+  </si>
+  <si>
+    <t>HKGV99502800</t>
+  </si>
+  <si>
+    <t>CAIU8727488</t>
+  </si>
+  <si>
+    <t>CHI1392580-CHI9566899</t>
+  </si>
+  <si>
+    <t>XMNV42644600</t>
+  </si>
+  <si>
+    <t>TLLU5492928</t>
+  </si>
+  <si>
+    <t>CHI1392127-CHI9562868</t>
+  </si>
+  <si>
+    <t>FDCU0395718</t>
+  </si>
+  <si>
+    <t>CHI1392127-CHI9562867</t>
+  </si>
+  <si>
+    <t>TCLU6397043</t>
+  </si>
+  <si>
+    <t>CHI1395945-CHI9559255</t>
+  </si>
+  <si>
+    <t>HKGV88058500</t>
+  </si>
+  <si>
+    <t>TCLU6240455</t>
+  </si>
+  <si>
+    <t>CHI1392127-CHI9562869</t>
+  </si>
+  <si>
+    <t>TRLU9269153</t>
+  </si>
+  <si>
+    <t>CHI1392580-CHI9566902</t>
+  </si>
+  <si>
+    <t>HKGVA6714909</t>
+  </si>
+  <si>
+    <t>NYKU4322447</t>
+  </si>
+  <si>
+    <t>CHI1396411-CHI9597187</t>
+  </si>
+  <si>
+    <t>TGHU6166228</t>
+  </si>
+  <si>
+    <t>YM MATURITY</t>
+  </si>
+  <si>
+    <t>CHI1400591-CHI9630696</t>
+  </si>
+  <si>
+    <t>TPEV40026700</t>
+  </si>
+  <si>
+    <t>ONEU0340645</t>
+  </si>
+  <si>
+    <t>CHI1400591-CHI9630686</t>
+  </si>
+  <si>
+    <t>TPEV41887900</t>
+  </si>
+  <si>
+    <t>KKFU1711790</t>
+  </si>
+  <si>
+    <t>CHI1400591-CHI9630697</t>
+  </si>
+  <si>
+    <t>HANV16834900</t>
+  </si>
+  <si>
+    <t>TTNU5799346</t>
+  </si>
+  <si>
+    <t>CHI1400591-CHI9630688</t>
+  </si>
+  <si>
+    <t>HANV16820400</t>
+  </si>
+  <si>
+    <t>TCKU4620654</t>
+  </si>
+  <si>
+    <t>CHI1400591-CHI9630690</t>
+  </si>
+  <si>
+    <t>CLHU4696970</t>
+  </si>
+  <si>
+    <t>CHI1400591-CHI9630689</t>
+  </si>
+  <si>
+    <t>CAIU9897200</t>
+  </si>
+  <si>
+    <t>CHI1400591-CHI9630692</t>
+  </si>
+  <si>
+    <t>DRYU9216966</t>
+  </si>
+  <si>
+    <t>CHI1400591-CHI9630685</t>
+  </si>
+  <si>
+    <t>SEGU5058112</t>
+  </si>
+  <si>
+    <t>CHI1400591-CHI9630693</t>
+  </si>
+  <si>
+    <t>BMOU6595103</t>
+  </si>
+  <si>
+    <t>CHI1400591-CHI9630695</t>
+  </si>
+  <si>
+    <t>CAIU9436933</t>
+  </si>
+  <si>
+    <t>CHI1400591-CHI9630694</t>
+  </si>
+  <si>
+    <t>KKFU8143270</t>
+  </si>
+  <si>
+    <t>CHI1400591-CHI9630691</t>
+  </si>
+  <si>
+    <t>TCNU9591907</t>
+  </si>
+  <si>
+    <t>CHI1400591-CHI9630687</t>
+  </si>
+  <si>
+    <t>NYKU3519621</t>
+  </si>
+  <si>
+    <t>CHI1391598-CHI9559315</t>
+  </si>
+  <si>
+    <t>NYKU4296939</t>
+  </si>
+  <si>
+    <t>YM MOBILITY</t>
+  </si>
+  <si>
+    <t>0042</t>
+  </si>
+  <si>
+    <t>CHI1400834-CHI9631994</t>
+  </si>
+  <si>
+    <t>TPEV44286500</t>
+  </si>
+  <si>
+    <t>DFSU7823431</t>
+  </si>
+  <si>
+    <t>ATHENS GLORY</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>CHI1396967-CHI9603789</t>
+  </si>
+  <si>
+    <t>DELV19850400</t>
+  </si>
+  <si>
+    <t>COLU2900218</t>
+  </si>
+  <si>
+    <t>CHI1392580-CHI9566905</t>
+  </si>
+  <si>
+    <t>HKGVA5453800</t>
+  </si>
+  <si>
+    <t>TEMU8872237</t>
+  </si>
+  <si>
+    <t>CHI1400834-CHI9631993</t>
+  </si>
+  <si>
+    <t>TLLU5678173</t>
+  </si>
+  <si>
+    <t>CHI1396046-CHI9559256</t>
+  </si>
+  <si>
+    <t>TPEV41923700</t>
+  </si>
+  <si>
+    <t>TGCU0224308</t>
+  </si>
+  <si>
+    <t>CHI1395980-CHI9559295</t>
+  </si>
+  <si>
+    <t>OS8NA2564700</t>
   </si>
 </sst>
 </file>
@@ -431,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -498,58 +684,58 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -558,88 +744,88 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -648,16 +834,16 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -666,34 +852,34 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -702,88 +888,88 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -792,88 +978,88 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -882,16 +1068,16 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -900,34 +1086,34 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -936,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -954,227 +1140,677 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" t="s">
+        <v>180</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" t="s">
+        <v>185</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
